--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-685883.2280094477</v>
+        <v>-688670.0765611314</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -659,13 +659,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>227.8744841831826</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>277.7709605566263</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +674,10 @@
         <v>413.1401505658317</v>
       </c>
       <c r="H2" t="n">
-        <v>317.3272085212143</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>127.102756207389</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>159.7401194789956</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>211.435691927152</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>57.32708051574969</v>
       </c>
     </row>
     <row r="3">
@@ -750,7 +750,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>120.6765959924608</v>
+        <v>136.186431136515</v>
       </c>
       <c r="H3" t="n">
         <v>101.060429189199</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>28.31700172324138</v>
+        <v>28.31700172324136</v>
       </c>
       <c r="S3" t="n">
-        <v>150.1908056518375</v>
+        <v>134.6809705077831</v>
       </c>
       <c r="T3" t="n">
         <v>195.500860017044</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>162.1978726288067</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>24.77579277565482</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>207.1110620291632</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.8007788264712</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>266.4393868221368</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,16 +902,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>412.9169039459368</v>
+        <v>214.8271456314277</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>73.28528472955388</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>10.92647652512377</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1105,16 +1105,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.450697970766703</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>302.2897206710701</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>191.1099132494019</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>11.74959663156269</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>97.39601530024005</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1379,13 +1379,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,7 +1540,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>26.70391688092804</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>156.3923706291104</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272928</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,10 +1771,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>14.53306611597334</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>111.306220275312</v>
       </c>
     </row>
     <row r="17">
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>4.019807611472022</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,13 +2059,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>145.6718493954783</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2242,10 +2242,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>75.21356227238265</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>109.7234882887314</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,10 +2293,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>156.3923706291105</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,16 +2485,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>116.6320338128955</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D28" t="n">
-        <v>24.83266606353065</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2846,7 +2846,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>118.8241514613401</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3080,7 +3080,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>14.90335196317894</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3238,7 +3238,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3263,10 +3263,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652616</v>
+        <v>56.9811888265259</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3478,7 +3478,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3563,7 +3563,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -3977,7 +3977,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308914</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1929.05802761066</v>
+        <v>1519.842534170777</v>
       </c>
       <c r="C2" t="n">
-        <v>1560.095510670248</v>
+        <v>1519.842534170777</v>
       </c>
       <c r="D2" t="n">
-        <v>1329.919264020569</v>
+        <v>1161.576835564027</v>
       </c>
       <c r="E2" t="n">
-        <v>1329.919264020569</v>
+        <v>881.0001077290506</v>
       </c>
       <c r="F2" t="n">
-        <v>918.9333592309615</v>
+        <v>470.014202939443</v>
       </c>
       <c r="G2" t="n">
-        <v>501.6200758311314</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H2" t="n">
-        <v>181.087541971319</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I2" t="n">
         <v>52.70091953961285</v>
@@ -4331,22 +4331,22 @@
         <v>222.5825185260962</v>
       </c>
       <c r="K2" t="n">
-        <v>597.9358023929383</v>
+        <v>597.9358023929384</v>
       </c>
       <c r="L2" t="n">
-        <v>702.3867671748153</v>
+        <v>1115.871369579761</v>
       </c>
       <c r="M2" t="n">
-        <v>1295.29642664296</v>
+        <v>1263.762630890002</v>
       </c>
       <c r="N2" t="n">
-        <v>1716.473158100325</v>
+        <v>1506.281317347019</v>
       </c>
       <c r="O2" t="n">
-        <v>2226.395964378861</v>
+        <v>2016.204123625555</v>
       </c>
       <c r="P2" t="n">
-        <v>2623.928899148983</v>
+        <v>2413.737058395677</v>
       </c>
       <c r="Q2" t="n">
         <v>2635.045976980643</v>
@@ -4355,25 +4355,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S2" t="n">
-        <v>2473.692320941253</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T2" t="n">
-        <v>2473.692320941253</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="U2" t="n">
-        <v>2473.692320941253</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="V2" t="n">
-        <v>2142.629433597682</v>
+        <v>2303.983089637072</v>
       </c>
       <c r="W2" t="n">
-        <v>2142.629433597682</v>
+        <v>1951.214434366958</v>
       </c>
       <c r="X2" t="n">
-        <v>1929.05802761066</v>
+        <v>1577.748676105878</v>
       </c>
       <c r="Y2" t="n">
-        <v>1929.05802761066</v>
+        <v>1519.842534170777</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>955.8961180580286</v>
+        <v>971.5626182035379</v>
       </c>
       <c r="C3" t="n">
-        <v>781.4430887769016</v>
+        <v>797.1095889224109</v>
       </c>
       <c r="D3" t="n">
-        <v>632.5086791156504</v>
+        <v>648.1751792611597</v>
       </c>
       <c r="E3" t="n">
-        <v>473.2712241101949</v>
+        <v>488.9377242557041</v>
       </c>
       <c r="F3" t="n">
-        <v>326.7366661370799</v>
+        <v>342.403166282589</v>
       </c>
       <c r="G3" t="n">
-        <v>204.8411146295437</v>
+        <v>204.8411146295436</v>
       </c>
       <c r="H3" t="n">
         <v>102.7598730242921</v>
@@ -4410,22 +4410,22 @@
         <v>52.70091953961285</v>
       </c>
       <c r="K3" t="n">
-        <v>363.0340580290518</v>
+        <v>101.213473386599</v>
       </c>
       <c r="L3" t="n">
-        <v>841.7196565028938</v>
+        <v>579.899071860441</v>
       </c>
       <c r="M3" t="n">
-        <v>991.2543803086286</v>
+        <v>1190.481808778676</v>
       </c>
       <c r="N3" t="n">
-        <v>1633.704438814909</v>
+        <v>1704.716682185639</v>
       </c>
       <c r="O3" t="n">
-        <v>2155.00505129035</v>
+        <v>2226.01729466108</v>
       </c>
       <c r="P3" t="n">
-        <v>2556.391683798317</v>
+        <v>2627.403927169047</v>
       </c>
       <c r="Q3" t="n">
         <v>2635.045976980643</v>
@@ -4434,25 +4434,25 @@
         <v>2606.442944936965</v>
       </c>
       <c r="S3" t="n">
-        <v>2454.735060440159</v>
+        <v>2470.401560585668</v>
       </c>
       <c r="T3" t="n">
-        <v>2257.259444261327</v>
+        <v>2272.925944406836</v>
       </c>
       <c r="U3" t="n">
-        <v>2029.112719008528</v>
+        <v>2044.779219154037</v>
       </c>
       <c r="V3" t="n">
-        <v>1793.960610776785</v>
+        <v>1809.627110922294</v>
       </c>
       <c r="W3" t="n">
-        <v>1539.723254048583</v>
+        <v>1555.389754194093</v>
       </c>
       <c r="X3" t="n">
-        <v>1331.871753843051</v>
+        <v>1347.53825398856</v>
       </c>
       <c r="Y3" t="n">
-        <v>1124.111455078097</v>
+        <v>1139.777955223606</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.5632078269478</v>
+        <v>1890.438215871491</v>
       </c>
       <c r="C4" t="n">
-        <v>241.5632078269478</v>
+        <v>1721.502032943584</v>
       </c>
       <c r="D4" t="n">
-        <v>241.5632078269478</v>
+        <v>1721.502032943584</v>
       </c>
       <c r="E4" t="n">
-        <v>241.5632078269478</v>
+        <v>1721.502032943584</v>
       </c>
       <c r="F4" t="n">
-        <v>241.5632078269478</v>
+        <v>1721.502032943584</v>
       </c>
       <c r="G4" t="n">
-        <v>77.7269728483551</v>
+        <v>1721.502032943584</v>
       </c>
       <c r="H4" t="n">
-        <v>77.7269728483551</v>
+        <v>1721.502032943584</v>
       </c>
       <c r="I4" t="n">
-        <v>77.7269728483551</v>
+        <v>1721.502032943584</v>
       </c>
       <c r="J4" t="n">
-        <v>52.70091953961285</v>
+        <v>1721.502032943584</v>
       </c>
       <c r="K4" t="n">
-        <v>142.2306602835289</v>
+        <v>1811.031773687501</v>
       </c>
       <c r="L4" t="n">
-        <v>312.3243390278058</v>
+        <v>1981.125452431778</v>
       </c>
       <c r="M4" t="n">
-        <v>502.0533974645903</v>
+        <v>2170.854510868562</v>
       </c>
       <c r="N4" t="n">
-        <v>692.7057393788979</v>
+        <v>2361.50685278287</v>
       </c>
       <c r="O4" t="n">
-        <v>852.7877395980026</v>
+        <v>2521.588853001975</v>
       </c>
       <c r="P4" t="n">
-        <v>966.2448635766705</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="Q4" t="n">
-        <v>966.2448635766705</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R4" t="n">
-        <v>966.2448635766705</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="S4" t="n">
-        <v>757.0417706179198</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T4" t="n">
-        <v>530.9803778639084</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="U4" t="n">
-        <v>530.9803778639084</v>
+        <v>2365.915283220908</v>
       </c>
       <c r="V4" t="n">
-        <v>530.9803778639084</v>
+        <v>2111.230795015022</v>
       </c>
       <c r="W4" t="n">
-        <v>241.5632078269478</v>
+        <v>2111.230795015022</v>
       </c>
       <c r="X4" t="n">
-        <v>241.5632078269478</v>
+        <v>2111.230795015022</v>
       </c>
       <c r="Y4" t="n">
-        <v>241.5632078269478</v>
+        <v>1890.438215871491</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1567.960238260695</v>
+        <v>1031.394306626894</v>
       </c>
       <c r="C5" t="n">
-        <v>1198.997721320284</v>
+        <v>662.4317896864825</v>
       </c>
       <c r="D5" t="n">
-        <v>1198.997721320284</v>
+        <v>662.4317896864825</v>
       </c>
       <c r="E5" t="n">
-        <v>1198.997721320284</v>
+        <v>276.6435370882382</v>
       </c>
       <c r="F5" t="n">
-        <v>788.0118165306759</v>
+        <v>269.6980363390348</v>
       </c>
       <c r="G5" t="n">
-        <v>370.9240347671034</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H5" t="n">
         <v>52.70091953961285</v>
@@ -4571,16 +4571,16 @@
         <v>156.4983241075885</v>
       </c>
       <c r="L5" t="n">
-        <v>709.3115823537878</v>
+        <v>683.1408478992852</v>
       </c>
       <c r="M5" t="n">
-        <v>1341.029393337099</v>
+        <v>1314.858658882597</v>
       </c>
       <c r="N5" t="n">
-        <v>1623.585605852676</v>
+        <v>1942.166326942443</v>
       </c>
       <c r="O5" t="n">
-        <v>2170.746810619753</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P5" t="n">
         <v>2600.061856959047</v>
@@ -4592,25 +4592,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S5" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T5" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U5" t="n">
-        <v>2381.354273725794</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="V5" t="n">
-        <v>2381.354273725794</v>
+        <v>2147.7680521339</v>
       </c>
       <c r="W5" t="n">
-        <v>2028.585618455679</v>
+        <v>1794.999396863786</v>
       </c>
       <c r="X5" t="n">
-        <v>2028.585618455679</v>
+        <v>1421.533638602706</v>
       </c>
       <c r="Y5" t="n">
-        <v>1954.560078324817</v>
+        <v>1031.394306626894</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J6" t="n">
-        <v>171.3601713965085</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K6" t="n">
-        <v>500.7885757023184</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L6" t="n">
-        <v>638.0181737180123</v>
+        <v>886.4908637115414</v>
       </c>
       <c r="M6" t="n">
-        <v>817.5155100726172</v>
+        <v>1440.248516892441</v>
       </c>
       <c r="N6" t="n">
-        <v>1469.689389375326</v>
+        <v>1638.905258545106</v>
       </c>
       <c r="O6" t="n">
-        <v>2019.125398128049</v>
+        <v>2188.341267297829</v>
       </c>
       <c r="P6" t="n">
-        <v>2404.332520920175</v>
+        <v>2612.309035778665</v>
       </c>
       <c r="Q6" t="n">
         <v>2635.045976980643</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>213.8544039268211</v>
+        <v>221.6371024675198</v>
       </c>
       <c r="C7" t="n">
-        <v>213.8544039268211</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D7" t="n">
-        <v>63.73776451448535</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E7" t="n">
-        <v>63.73776451448535</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F7" t="n">
-        <v>63.73776451448535</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G7" t="n">
-        <v>63.73776451448535</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H7" t="n">
         <v>52.70091953961285</v>
@@ -4753,22 +4753,22 @@
         <v>922.1576397183603</v>
       </c>
       <c r="T7" t="n">
-        <v>696.5284430307253</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="U7" t="n">
-        <v>696.5284430307253</v>
+        <v>920.6922882327374</v>
       </c>
       <c r="V7" t="n">
-        <v>441.8439548248384</v>
+        <v>920.6922882327374</v>
       </c>
       <c r="W7" t="n">
-        <v>441.8439548248384</v>
+        <v>631.2751181957768</v>
       </c>
       <c r="X7" t="n">
-        <v>213.8544039268211</v>
+        <v>403.2855672977595</v>
       </c>
       <c r="Y7" t="n">
-        <v>213.8544039268211</v>
+        <v>403.2855672977595</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1522.185532827041</v>
+        <v>1305.810728885682</v>
       </c>
       <c r="C8" t="n">
-        <v>1153.22301588663</v>
+        <v>1305.810728885682</v>
       </c>
       <c r="D8" t="n">
-        <v>794.9573172798794</v>
+        <v>1305.810728885682</v>
       </c>
       <c r="E8" t="n">
-        <v>794.9573172798794</v>
+        <v>1000.467576692682</v>
       </c>
       <c r="F8" t="n">
-        <v>383.9714124902719</v>
+        <v>589.4816719030746</v>
       </c>
       <c r="G8" t="n">
-        <v>370.9240347671034</v>
+        <v>172.393890139502</v>
       </c>
       <c r="H8" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I8" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J8" t="n">
-        <v>73.93516953299616</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K8" t="n">
-        <v>156.4983241075885</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L8" t="n">
-        <v>709.3115823537878</v>
+        <v>784.1365874146478</v>
       </c>
       <c r="M8" t="n">
-        <v>996.277937792829</v>
+        <v>970.8360002400555</v>
       </c>
       <c r="N8" t="n">
-        <v>1623.585605852676</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O8" t="n">
-        <v>2170.746810619753</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P8" t="n">
-        <v>2600.061856959047</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q8" t="n">
         <v>2635.045976980643</v>
@@ -4832,22 +4832,22 @@
         <v>2478.830939477471</v>
       </c>
       <c r="T8" t="n">
-        <v>2285.790623063933</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U8" t="n">
-        <v>2285.790623063933</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="V8" t="n">
-        <v>2285.790623063933</v>
+        <v>1679.276487146762</v>
       </c>
       <c r="W8" t="n">
-        <v>2285.790623063933</v>
+        <v>1679.276487146762</v>
       </c>
       <c r="X8" t="n">
-        <v>1912.324864802853</v>
+        <v>1305.810728885682</v>
       </c>
       <c r="Y8" t="n">
-        <v>1522.185532827041</v>
+        <v>1305.810728885682</v>
       </c>
     </row>
     <row r="9">
@@ -4884,19 +4884,19 @@
         <v>171.3601713965085</v>
       </c>
       <c r="K9" t="n">
-        <v>238.9679910598655</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L9" t="n">
-        <v>376.1975890755595</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M9" t="n">
-        <v>1016.742938542664</v>
+        <v>1645.695465035541</v>
       </c>
       <c r="N9" t="n">
-        <v>1668.916817845373</v>
+        <v>1844.352206688206</v>
       </c>
       <c r="O9" t="n">
-        <v>2218.352826598096</v>
+        <v>2003.864519356967</v>
       </c>
       <c r="P9" t="n">
         <v>2404.332520920175</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>341.9771294225595</v>
+        <v>664.8386175274111</v>
       </c>
       <c r="C10" t="n">
-        <v>341.9771294225595</v>
+        <v>664.8386175274111</v>
       </c>
       <c r="D10" t="n">
-        <v>341.9771294225595</v>
+        <v>664.8386175274111</v>
       </c>
       <c r="E10" t="n">
-        <v>341.9771294225595</v>
+        <v>664.8386175274111</v>
       </c>
       <c r="F10" t="n">
-        <v>195.0871819246492</v>
+        <v>517.9486700295007</v>
       </c>
       <c r="G10" t="n">
-        <v>195.0871819246492</v>
+        <v>349.3418250248841</v>
       </c>
       <c r="H10" t="n">
         <v>195.0871819246492</v>
@@ -4987,25 +4987,25 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S10" t="n">
-        <v>1040.767321573137</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T10" t="n">
-        <v>1040.767321573137</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U10" t="n">
-        <v>751.6151451508166</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V10" t="n">
-        <v>751.6151451508166</v>
+        <v>954.2557875643718</v>
       </c>
       <c r="W10" t="n">
-        <v>751.6151451508166</v>
+        <v>664.8386175274111</v>
       </c>
       <c r="X10" t="n">
-        <v>523.6255942527993</v>
+        <v>664.8386175274111</v>
       </c>
       <c r="Y10" t="n">
-        <v>523.6255942527993</v>
+        <v>664.8386175274111</v>
       </c>
     </row>
     <row r="11">
@@ -5027,22 +5027,22 @@
         <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2495.978408795858</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>734.6461798835968</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C13" t="n">
-        <v>565.7099969556899</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>415.5933575433542</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>267.680263960961</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>120.7903164630507</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G13" t="n">
         <v>93.81666304797186</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2221.945288288107</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510504</v>
+        <v>2002.343823311048</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854702</v>
+        <v>1713.268596655246</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648815</v>
+        <v>1458.584108449359</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611854</v>
+        <v>1169.166938412398</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138365</v>
+        <v>941.1773875143809</v>
       </c>
       <c r="Y13" t="n">
-        <v>916.2946447138365</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
     <row r="14">
@@ -5258,43 +5258,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>590.9096564684977</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1188.28814409505</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N15" t="n">
-        <v>1815.886107649656</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835331</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5473,13 +5473,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>803.8641191832229</v>
       </c>
     </row>
     <row r="17">
@@ -5504,28 +5504,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5552,10 +5552,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>849.3843576263199</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>680.448174698413</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860773</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5686,37 +5686,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487566</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510507</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854705</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854705</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1398.968683817744</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1251.82540160009</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>1031.03282245656</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5741,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5835,22 +5835,22 @@
         <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>710.248605371872</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>802.9288273958739</v>
+        <v>835.5837926935562</v>
       </c>
       <c r="C22" t="n">
-        <v>633.992644467967</v>
+        <v>666.6476097656493</v>
       </c>
       <c r="D22" t="n">
-        <v>483.8760050556313</v>
+        <v>666.6476097656493</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>518.7345161832562</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>371.8445686853458</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>204.6484694002258</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510509</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304622</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.359422267661</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.369871369644</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.5772922261136</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6072,22 +6072,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>615.644930552589</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C25" t="n">
-        <v>615.644930552589</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D25" t="n">
-        <v>465.5282911402533</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>317.6151975578602</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>2079.252410323026</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>1790.177183667224</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V25" t="n">
-        <v>1535.492695461337</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W25" t="n">
-        <v>1246.075525424376</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X25" t="n">
-        <v>1018.085974526359</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y25" t="n">
-        <v>797.2933953828287</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="26">
@@ -6221,16 +6221,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6242,7 +6242,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1465.200520057987</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>2092.798483612594</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>580.8993044876688</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6482,28 +6482,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>867.8220324314351</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M30" t="n">
-        <v>1465.200520057987</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N30" t="n">
-        <v>2092.798483612594</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>734.6461798836013</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>734.6461798836013</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>584.5295404712656</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>584.5295404712656</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>437.6395929733552</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>916.2946447138411</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6695,25 +6695,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1176.533952578166</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>1804.131916132773</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O33" t="n">
-        <v>2356.04164637206</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P33" t="n">
-        <v>2356.04164637206</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>695.5020655703109</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>680.448174698413</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>530.3315352860773</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6886,22 +6886,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
         <v>1948.813509611463</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7020,22 +7020,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7072,22 +7072,22 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656822</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384023</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797186</v>
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7211,10 +7211,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,28 +7251,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>924.8344286397182</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1552.432392194325</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2104.342122433612</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345477</v>
@@ -7339,7 +7339,7 @@
         <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
@@ -7354,28 +7354,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,19 +7488,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319332</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656825</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.221455958012</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7573,7 +7573,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7600,19 +7600,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,22 +7643,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7725,25 +7725,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7819,10 +7819,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
@@ -7831,7 +7831,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -7982,13 +7982,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>268.9683096411489</v>
+        <v>88.50563792362578</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
@@ -7997,7 +7997,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,19 +8055,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>17.51837183749582</v>
+        <v>17.51837183749581</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>349.8320863644452</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>71.72953875831323</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8219,19 +8219,19 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>391.2261292428723</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>89.11313093292301</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>378.0407240669646</v>
       </c>
       <c r="N6" t="n">
-        <v>458.0981188384286</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>279.3106012776028</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,19 +8450,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>101.2797400137713</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>250.7308605730627</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8471,10 +8471,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
-        <v>65.71641987298244</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,22 +8532,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>458.0981188384286</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>78.07077454018153</v>
+        <v>294.7256303393021</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -22550,7 +22550,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>126.8085574375003</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22562,10 +22562,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>317.3272085212143</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>127.102756207389</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,28 +22592,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>14.02351548697399</v>
+        <v>14.02351548697396</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>213.629125193556</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1726459518922</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>328.9108581403039</v>
       </c>
     </row>
     <row r="3">
@@ -22702,25 +22702,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.82304467390918</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.6024389572897</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22747,7 +22747,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>4.932574202174465</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -22768,10 +22768,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>138.8202214113408</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>24.6339153725342</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,10 +23659,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.421048022933</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>211.1765892730638</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>107.2784330767828</v>
       </c>
     </row>
     <row r="17">
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>142.4141550350971</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,13 +23947,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>80.03780599355889</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,10 +24130,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>71.22040037418653</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>30.57122455749249</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,10 +24181,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>10.85445046951733</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>100.7734165143927</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D28" t="n">
-        <v>123.7828069546817</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>46.69998683092879</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,22 +25072,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>152.3434691354489</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-3.339550858072471e-13</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -26032,7 +26032,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>2.131628207280301e-13</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26314,13 +26314,13 @@
         <v>207271.1201254694</v>
       </c>
       <c r="C2" t="n">
-        <v>246312.5309592852</v>
+        <v>246312.5309592851</v>
       </c>
       <c r="D2" t="n">
         <v>246312.5309592851</v>
       </c>
       <c r="E2" t="n">
-        <v>242143.9799070017</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="F2" t="n">
         <v>242143.9799070018</v>
@@ -26329,7 +26329,7 @@
         <v>242143.9799070019</v>
       </c>
       <c r="H2" t="n">
-        <v>242143.9799070019</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="I2" t="n">
         <v>242143.9799070018</v>
@@ -26341,19 +26341,19 @@
         <v>242143.9799070018</v>
       </c>
       <c r="L2" t="n">
-        <v>242143.9799070018</v>
+        <v>242143.9799070019</v>
       </c>
       <c r="M2" t="n">
-        <v>246312.5309592848</v>
+        <v>246312.5309592849</v>
       </c>
       <c r="N2" t="n">
         <v>246312.530959285</v>
       </c>
       <c r="O2" t="n">
-        <v>246312.5309592851</v>
+        <v>246312.530959285</v>
       </c>
       <c r="P2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592848</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>739135.4816082061</v>
+        <v>739135.4816082062</v>
       </c>
       <c r="C3" t="n">
-        <v>50568.09361917555</v>
+        <v>50568.09361917551</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>189891.8124216188</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="G4" t="n">
         <v>6897.424496707359</v>
@@ -26436,28 +26436,28 @@
         <v>6897.424496707361</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.424496707366</v>
+        <v>6897.424496707373</v>
       </c>
       <c r="J4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.424496707366</v>
+        <v>6897.424496707412</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.424496707363</v>
+        <v>6897.424496707345</v>
       </c>
       <c r="M4" t="n">
-        <v>14888.28375980088</v>
+        <v>14888.28375980087</v>
       </c>
       <c r="N4" t="n">
         <v>14888.28375980084</v>
       </c>
       <c r="O4" t="n">
-        <v>14888.28375980082</v>
+        <v>14888.28375980083</v>
       </c>
       <c r="P4" t="n">
-        <v>14888.28375980084</v>
+        <v>14888.28375980083</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-743195.2640421031</v>
+        <v>-743520.6091323849</v>
       </c>
       <c r="C6" t="n">
-        <v>-80765.45291898478</v>
+        <v>-80765.45291898487</v>
       </c>
       <c r="D6" t="n">
-        <v>-30197.35929980929</v>
+        <v>-30197.35929980935</v>
       </c>
       <c r="E6" t="n">
-        <v>-641564.3216901972</v>
+        <v>-641599.0596156328</v>
       </c>
       <c r="F6" t="n">
-        <v>134124.0255863874</v>
+        <v>134089.2876609516</v>
       </c>
       <c r="G6" t="n">
-        <v>134124.0255863874</v>
+        <v>134089.2876609517</v>
       </c>
       <c r="H6" t="n">
-        <v>134124.0255863872</v>
+        <v>134089.2876609514</v>
       </c>
       <c r="I6" t="n">
-        <v>134124.0255863875</v>
+        <v>134089.2876609518</v>
       </c>
       <c r="J6" t="n">
-        <v>-38236.96681389351</v>
+        <v>-38271.70473932917</v>
       </c>
       <c r="K6" t="n">
-        <v>134124.0255863873</v>
+        <v>134089.2876609516</v>
       </c>
       <c r="L6" t="n">
-        <v>134124.0255863873</v>
+        <v>134089.2876609517</v>
       </c>
       <c r="M6" t="n">
-        <v>-19245.18346377688</v>
+        <v>-19245.18346377679</v>
       </c>
       <c r="N6" t="n">
-        <v>128260.1313455688</v>
+        <v>128260.1313455687</v>
       </c>
       <c r="O6" t="n">
-        <v>128260.1313455688</v>
+        <v>128260.1313455687</v>
       </c>
       <c r="P6" t="n">
-        <v>128260.1313455687</v>
+        <v>128260.1313455686</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>537.9435036392048</v>
+        <v>537.9435036392049</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>537.9435036392048</v>
+        <v>537.9435036392049</v>
       </c>
       <c r="C3" t="n">
-        <v>55.53259669886027</v>
+        <v>55.53259669886022</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>104.1594095156355</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>159.7401194789956</v>
       </c>
       <c r="T2" t="n">
-        <v>213.629125193556</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1726459518922</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>158.295408751317</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27470,7 +27470,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>15.50983514405415</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>15.50983514405442</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0209173027159</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.6024389572897</v>
       </c>
       <c r="I4" t="n">
         <v>126.278063287283</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>24.77579277565481</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>4.93257420217445</v>
       </c>
       <c r="R4" t="n">
         <v>133.6758738525874</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>207.1110620291632</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.8007788264712</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2661168807231</v>
+        <v>19.82673005858624</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,16 +27622,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>198.0897583145091</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
         <v>118.4960408938903</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>312.9526539264997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27789,7 +27789,7 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
-        <v>141.7856201441088</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
         <v>123.266557879417</v>
@@ -27825,16 +27825,16 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>286.260654658097</v>
+        <v>284.8099566873303</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>79.64064940119164</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>21.54194986556408</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28023,10 +28023,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28059,22 +28059,22 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>193.6162852685559</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>154.741628023588</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28299,7 +28299,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>-4.524736141320318e-12</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28494,7 +28494,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29983,10 +29983,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30283,7 +30283,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="44">
@@ -30697,7 +30697,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.162586949303334</v>
+        <v>2.162586949303335</v>
       </c>
       <c r="H2" t="n">
         <v>22.14759359455278</v>
       </c>
       <c r="I2" t="n">
-        <v>83.37313336301688</v>
+        <v>83.37313336301689</v>
       </c>
       <c r="J2" t="n">
-        <v>183.546864088434</v>
+        <v>183.5468640884341</v>
       </c>
       <c r="K2" t="n">
-        <v>275.0891696524442</v>
+        <v>275.0891696524443</v>
       </c>
       <c r="L2" t="n">
-        <v>341.2724400021862</v>
+        <v>341.2724400021863</v>
       </c>
       <c r="M2" t="n">
-        <v>379.7313456618593</v>
+        <v>379.7313456618595</v>
       </c>
       <c r="N2" t="n">
-        <v>385.8757958315675</v>
+        <v>385.8757958315676</v>
       </c>
       <c r="O2" t="n">
-        <v>364.3715718544324</v>
+        <v>364.3715718544325</v>
       </c>
       <c r="P2" t="n">
-        <v>310.9827065435063</v>
+        <v>310.9827065435064</v>
       </c>
       <c r="Q2" t="n">
-        <v>233.5350614215806</v>
+        <v>233.5350614215807</v>
       </c>
       <c r="R2" t="n">
         <v>135.8456024541757</v>
       </c>
       <c r="S2" t="n">
-        <v>49.27995010724977</v>
+        <v>49.27995010724979</v>
       </c>
       <c r="T2" t="n">
-        <v>9.466724370575349</v>
+        <v>9.466724370575353</v>
       </c>
       <c r="U2" t="n">
         <v>0.1730069559442667</v>
@@ -31121,10 +31121,10 @@
         <v>1.157086026695648</v>
       </c>
       <c r="H3" t="n">
-        <v>11.17501504729744</v>
+        <v>11.17501504729745</v>
       </c>
       <c r="I3" t="n">
-        <v>39.83826890158262</v>
+        <v>39.83826890158263</v>
       </c>
       <c r="J3" t="n">
         <v>109.3192548291709</v>
@@ -31136,31 +31136,31 @@
         <v>251.2348410156494</v>
       </c>
       <c r="M3" t="n">
-        <v>293.1792094833665</v>
+        <v>293.1792094833666</v>
       </c>
       <c r="N3" t="n">
         <v>300.9387907764265</v>
       </c>
       <c r="O3" t="n">
-        <v>275.3002003954334</v>
+        <v>275.3002003954335</v>
       </c>
       <c r="P3" t="n">
-        <v>220.952681711733</v>
+        <v>220.9526817117331</v>
       </c>
       <c r="Q3" t="n">
         <v>147.7010163199568</v>
       </c>
       <c r="R3" t="n">
-        <v>71.84083242940176</v>
+        <v>71.84083242940177</v>
       </c>
       <c r="S3" t="n">
-        <v>21.49236545200029</v>
+        <v>21.4923654520003</v>
       </c>
       <c r="T3" t="n">
-        <v>4.663868677777632</v>
+        <v>4.663868677777633</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07612408070366108</v>
+        <v>0.0761240807036611</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9700620557428282</v>
+        <v>0.9700620557428283</v>
       </c>
       <c r="H4" t="n">
-        <v>8.624733550149879</v>
+        <v>8.62473355014988</v>
       </c>
       <c r="I4" t="n">
-        <v>29.17241163997524</v>
+        <v>29.17241163997525</v>
       </c>
       <c r="J4" t="n">
-        <v>68.58338734101795</v>
+        <v>68.58338734101797</v>
       </c>
       <c r="K4" t="n">
         <v>112.703573385394</v>
@@ -31218,7 +31218,7 @@
         <v>152.061636610669</v>
       </c>
       <c r="N4" t="n">
-        <v>148.4459507665367</v>
+        <v>148.4459507665368</v>
       </c>
       <c r="O4" t="n">
         <v>137.1138622062682</v>
@@ -31227,19 +31227,19 @@
         <v>117.3245962691144</v>
       </c>
       <c r="Q4" t="n">
-        <v>81.22946904951992</v>
+        <v>81.22946904951993</v>
       </c>
       <c r="R4" t="n">
-        <v>43.61751752458206</v>
+        <v>43.61751752458207</v>
       </c>
       <c r="S4" t="n">
         <v>16.9055360078091</v>
       </c>
       <c r="T4" t="n">
-        <v>4.144810601810264</v>
+        <v>4.144810601810265</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05291247576779069</v>
+        <v>0.0529124757677907</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31838,19 +31838,19 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31859,10 +31859,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>197.6412480909884</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,34 +32072,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>186.6878763515707</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,13 +32309,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,19 +32324,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>253.6713445157999</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>305.6802133385886</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32555,25 +32555,25 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>270.97169333569</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32792,7 +32792,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>194.5189324111251</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,22 +33032,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>536.8001439125376</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>437.8531046913764</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33266,16 +33266,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>430.1367711736326</v>
+        <v>514.8598010172138</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33284,7 +33284,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33503,10 +33503,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,13 +33515,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>437.8531046913764</v>
       </c>
       <c r="Q33" t="n">
-        <v>301.9817606876396</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33740,25 +33740,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,7 +33971,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,22 +33980,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>550.2163373881178</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34208,7 +34208,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34217,13 +34217,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>595.3857163736981</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34445,13 +34445,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>162.5000833330458</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,13 +34460,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34699,25 +34699,25 @@
         <v>171.5975747338215</v>
       </c>
       <c r="K2" t="n">
-        <v>379.1447311786284</v>
+        <v>379.1447311786285</v>
       </c>
       <c r="L2" t="n">
-        <v>105.506025032199</v>
+        <v>523.1672395826495</v>
       </c>
       <c r="M2" t="n">
-        <v>598.8986459274191</v>
+        <v>149.3851124345867</v>
       </c>
       <c r="N2" t="n">
-        <v>425.4310418761254</v>
+        <v>244.9683701586025</v>
       </c>
       <c r="O2" t="n">
-        <v>515.073541695491</v>
+        <v>515.0735416954911</v>
       </c>
       <c r="P2" t="n">
-        <v>401.5484189597194</v>
+        <v>401.5484189597195</v>
       </c>
       <c r="Q2" t="n">
-        <v>11.22937154713111</v>
+        <v>223.5443622070358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>313.4678166559989</v>
+        <v>49.00257964342032</v>
       </c>
       <c r="L3" t="n">
         <v>483.5208065392344</v>
       </c>
       <c r="M3" t="n">
-        <v>151.0451755613482</v>
+        <v>616.7502393113482</v>
       </c>
       <c r="N3" t="n">
-        <v>648.9394530366467</v>
+        <v>519.4291650575384</v>
       </c>
       <c r="O3" t="n">
         <v>526.5662752277185</v>
       </c>
       <c r="P3" t="n">
-        <v>405.4410429373399</v>
+        <v>405.44104293734</v>
       </c>
       <c r="Q3" t="n">
-        <v>79.44878099224849</v>
+        <v>7.71924223393529</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,19 +34857,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>90.43408155951116</v>
+        <v>90.43408155951118</v>
       </c>
       <c r="L4" t="n">
-        <v>171.8117967113908</v>
+        <v>171.8117967113909</v>
       </c>
       <c r="M4" t="n">
-        <v>191.6455135725095</v>
+        <v>191.6455135725096</v>
       </c>
       <c r="N4" t="n">
         <v>192.5781231457653</v>
       </c>
       <c r="O4" t="n">
-        <v>161.6989901203078</v>
+        <v>161.6989901203079</v>
       </c>
       <c r="P4" t="n">
         <v>114.6031555340079</v>
@@ -34939,19 +34939,19 @@
         <v>83.39712583292157</v>
       </c>
       <c r="L5" t="n">
-        <v>558.3972305517163</v>
+        <v>531.9621452441381</v>
       </c>
       <c r="M5" t="n">
         <v>638.0987989730422</v>
       </c>
       <c r="N5" t="n">
-        <v>285.4103156722991</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q5" t="n">
         <v>35.33749497130819</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>181.3104407622271</v>
+        <v>559.3511648291917</v>
       </c>
       <c r="N6" t="n">
-        <v>658.7614942451606</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O6" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>389.0981038304299</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M8" t="n">
-        <v>289.865005493981</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>447.0280453124388</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
@@ -35191,7 +35191,7 @@
         <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>658.7614942451606</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P9" t="n">
-        <v>187.8582770930086</v>
+        <v>404.5131328921292</v>
       </c>
       <c r="Q9" t="n">
         <v>233.0438950105733</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35507,10 +35507,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>57.65947400496688</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>44.0916319071262</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,19 +35972,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>122.3296324324666</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>171.7058059242583</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36051,7 +36051,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899065</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060454</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>132.4173135558158</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36367,7 +36367,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
         <v>696.488651224316</v>
@@ -36440,7 +36440,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>55.9645526312509</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36680,22 +36680,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>394.6661099905193</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>303.8786972770462</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36841,7 +36841,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
         <v>696.488651224316</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,16 +36914,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>291.5823913937584</v>
+        <v>376.3054212373396</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36932,7 +36932,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37087,7 +37087,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,10 +37151,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,13 +37163,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>303.8786972770462</v>
       </c>
       <c r="Q33" t="n">
-        <v>161.9999866016181</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K37" t="n">
         <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37479,7 +37479,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q37" t="n">
         <v>144.686904791938</v>
@@ -37619,7 +37619,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,22 +37628,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>416.2419299737876</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016746</v>
@@ -37716,7 +37716,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q40" t="n">
         <v>144.686904791938</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37856,7 +37856,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37865,13 +37865,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>453.2516824516798</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -37953,7 +37953,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q43" t="n">
         <v>144.686904791938</v>
@@ -38023,7 +38023,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38093,13 +38093,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>23.94570355317166</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,13 +38108,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K46" t="n">
         <v>288.6172359016746</v>
@@ -38190,10 +38190,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
